--- a/Newuserstory.xlsx
+++ b/Newuserstory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SL.NO</t>
   </si>
@@ -24,9 +24,6 @@
     <t>User Stories</t>
   </si>
   <si>
-    <t>will meet company goals.</t>
-  </si>
-  <si>
     <t>AS A Procurement Manager,I WANT TO be able to send quotations(requirements) to the vendors so that I or my team our duty.</t>
   </si>
   <si>
@@ -60,21 +57,12 @@
     <t>AS A Procurement Manager,I WANT TO be able to work in close collaboration with internal and external auditors SO THAT I can meet my goals.</t>
   </si>
   <si>
-    <t>AS A Procurement Manager,I WANT TO be able to take steps to ensure governance and transparency within their organizations  SO THAT I or my team perform our duty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS A Procurement Manager,I WANT TO be abilitity to drive savings across the company by continueously  ensuring the right product come from right vendors at the right price SO THAT I  </t>
-  </si>
-  <si>
     <t>AS A Procurement Manager,I WANT TO be able to amend my request SO THAT I can incorporate.</t>
   </si>
   <si>
     <t>AS A Procurement Manager,I WANT TO be able to delivery the laptops within a specified time SO THAT requester will have the trust on us.</t>
   </si>
   <si>
-    <t>AS A Procurement Manager,I WANT TO be able to proper ordernig and delivery of the telephonic items SO THAT I or my team perform our duty.</t>
-  </si>
-  <si>
     <t>AS A Procurement Manager,I WANT TO see the required items are available in stocks or not SO THAT will make orders.</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>EPIC</t>
   </si>
   <si>
-    <t>AS A Procurement Manager,I WANT TO be able to add new requirements to the existing one SO THAT more requestors can approaches.</t>
-  </si>
-  <si>
     <t>AS A Procurement Manager,I WANT TO be able to ask the panel of people and give their an opinion SO THAT I can purchase the good laptops.</t>
   </si>
   <si>
@@ -123,23 +108,32 @@
     <t>REQUESTER</t>
   </si>
   <si>
-    <t>PROCUREMENT</t>
-  </si>
-  <si>
     <t>SPECIFICATION</t>
   </si>
   <si>
-    <t>BUDGET</t>
-  </si>
-  <si>
-    <t>END USERS</t>
+    <t>VENDORS</t>
+  </si>
+  <si>
+    <t>PURCHASE</t>
+  </si>
+  <si>
+    <t>INSPECTION</t>
+  </si>
+  <si>
+    <t>AS A Procurement Manager,I WANT TO be able to do the inspection of the items SO THAT i can get to know the  items details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS A Procurement Manager,I WANT TO know the </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +141,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF893797"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,18 +228,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB54919"/>
+      <color rgb="FF895A8E"/>
+      <color rgb="FF893797"/>
+      <color rgb="FF9900CC"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -483,273 +638,282 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="8">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Newuserstory.xlsx
+++ b/Newuserstory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>SL.NO</t>
   </si>
@@ -54,9 +54,6 @@
     <t>AS A Procurement Manager,I WANT TO be able to cancel the order or change the vendors SO THAT I can search new vendors for goods,services and materials.</t>
   </si>
   <si>
-    <t>AS A Procurement Manager,I WANT TO be able to work in close collaboration with internal and external auditors SO THAT I can meet my goals.</t>
-  </si>
-  <si>
     <t>AS A Procurement Manager,I WANT TO be able to amend my request SO THAT I can incorporate.</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>AS A Procurement Manager,I WANT TO be able to do the inspection of the items SO THAT i can get to know the  items details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS A Procurement Manager,I WANT TO know the </t>
   </si>
 </sst>
 </file>
@@ -133,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,29 +142,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,19 +170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF893797"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,8 +180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,43 +243,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -322,9 +318,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF893797"/>
+      <color rgb="FF895A8E"/>
       <color rgb="FFB54919"/>
-      <color rgb="FF895A8E"/>
-      <color rgb="FF893797"/>
       <color rgb="FF9900CC"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFFFFF66"/>
@@ -619,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -638,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -649,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -661,7 +657,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -670,7 +666,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -679,7 +675,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -688,7 +684,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -697,222 +693,203 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>18</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="26">
+        <v>19</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="26">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="26">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="26">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="26">
+        <v>24</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>25</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>27</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="3" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8">
-        <v>23</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
-        <v>25</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
-        <v>26</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
-        <v>27</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
-        <v>28</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4">
-        <v>29</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B26:B27"/>
+  <mergeCells count="4">
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Newuserstory.xlsx
+++ b/Newuserstory.xlsx
@@ -105,9 +105,6 @@
     <t>REQUESTER</t>
   </si>
   <si>
-    <t>SPECIFICATION</t>
-  </si>
-  <si>
     <t>VENDORS</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>AS A Procurement Manager,I WANT TO be able to do the inspection of the items SO THAT i can get to know the  items details.</t>
+  </si>
+  <si>
+    <t>SPECIFICATIONS</t>
   </si>
 </sst>
 </file>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -271,24 +271,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -299,6 +284,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,7 +297,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -644,7 +647,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -655,7 +658,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -664,7 +667,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
@@ -673,7 +676,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
@@ -691,7 +694,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -700,8 +703,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
+      <c r="B8" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -711,7 +714,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -729,7 +732,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +741,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -747,7 +750,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
@@ -756,8 +759,8 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>29</v>
+      <c r="B14" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>27</v>
@@ -767,7 +770,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
@@ -776,8 +779,8 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -785,8 +788,8 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -794,55 +797,55 @@
       <c r="A18" s="5">
         <v>18</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="26">
+      <c r="A19" s="18">
         <v>19</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="26">
+      <c r="A20" s="18">
         <v>20</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26">
+      <c r="A21" s="18">
         <v>21</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="20" t="s">
-        <v>33</v>
+      <c r="B21" s="21"/>
+      <c r="C21" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="26">
+      <c r="A22" s="18">
         <v>23</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="26">
+      <c r="A23" s="18">
         <v>24</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -850,7 +853,7 @@
       <c r="A24" s="3">
         <v>25</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
@@ -868,8 +871,8 @@
       <c r="A26" s="3">
         <v>27</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>32</v>
+      <c r="B26" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
@@ -880,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>8</v>
       </c>
     </row>
